--- a/biology/Médecine/Ligament_bifurqué/Ligament_bifurqué.xlsx
+++ b/biology/Médecine/Ligament_bifurqué/Ligament_bifurqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_bifurqu%C3%A9</t>
+          <t>Ligament_bifurqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament bifurqué (ou ligament de Chopart ou ligament en V du pied ou ligament en Y du pied) est un ligament de l'articulation transverse du tarse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_bifurqu%C3%A9</t>
+          <t>Ligament_bifurqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le ligament bifurqué est une bande fibreuse très résistante qui nait de la face supérieure du tubercule du calcanéum.
 Il se divise en deux faisceaux :
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_bifurqu%C3%A9</t>
+          <t>Ligament_bifurqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament bifurqué est souvent atteint dans les entorse de la cheville et pouvant s'accompagner d'une fracture par avulsion au niveau du tubercule du calcanéum. 
 </t>
